--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cadm1-Crtam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cadm1-Crtam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.835299333333333</v>
+        <v>0.9457220000000001</v>
       </c>
       <c r="H2">
-        <v>5.505898</v>
+        <v>2.837166</v>
       </c>
       <c r="I2">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429605</v>
       </c>
       <c r="J2">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429604</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.09651566666666667</v>
+        <v>0.01737466666666667</v>
       </c>
       <c r="N2">
-        <v>0.289547</v>
+        <v>0.052124</v>
       </c>
       <c r="O2">
-        <v>0.05877409625898139</v>
+        <v>0.007337515433712846</v>
       </c>
       <c r="P2">
-        <v>0.05877409625898138</v>
+        <v>0.007337515433712844</v>
       </c>
       <c r="Q2">
-        <v>0.1771351386895555</v>
+        <v>0.01643160450933333</v>
       </c>
       <c r="R2">
-        <v>1.594216248206</v>
+        <v>0.147884440584</v>
       </c>
       <c r="S2">
-        <v>0.004993146378585793</v>
+        <v>0.0006917708487950869</v>
       </c>
       <c r="T2">
-        <v>0.004993146378585792</v>
+        <v>0.0006917708487950866</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.835299333333333</v>
+        <v>0.9457220000000001</v>
       </c>
       <c r="H3">
-        <v>5.505898</v>
+        <v>2.837166</v>
       </c>
       <c r="I3">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429605</v>
       </c>
       <c r="J3">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429604</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,28 +623,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.3490846666666667</v>
+        <v>0.09651566666666667</v>
       </c>
       <c r="N3">
-        <v>1.047254</v>
+        <v>0.289547</v>
       </c>
       <c r="O3">
-        <v>0.2125782943826159</v>
+        <v>0.04075964203217814</v>
       </c>
       <c r="P3">
-        <v>0.2125782943826159</v>
+        <v>0.04075964203217813</v>
       </c>
       <c r="Q3">
-        <v>0.6406748560102222</v>
+        <v>0.09127698931133334</v>
       </c>
       <c r="R3">
-        <v>5.766073704091999</v>
+        <v>0.8214929038020001</v>
       </c>
       <c r="S3">
-        <v>0.01805956379295757</v>
+        <v>0.003842762910675908</v>
       </c>
       <c r="T3">
-        <v>0.01805956379295757</v>
+        <v>0.003842762910675907</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.835299333333333</v>
+        <v>0.9457220000000001</v>
       </c>
       <c r="H4">
-        <v>5.505898</v>
+        <v>2.837166</v>
       </c>
       <c r="I4">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429605</v>
       </c>
       <c r="J4">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429604</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.07430666666666667</v>
+        <v>0.6683149999999999</v>
       </c>
       <c r="N4">
-        <v>0.22292</v>
+        <v>2.004945</v>
       </c>
       <c r="O4">
-        <v>0.04524972297434314</v>
+        <v>0.2822368751677807</v>
       </c>
       <c r="P4">
-        <v>0.04524972297434313</v>
+        <v>0.2822368751677807</v>
       </c>
       <c r="Q4">
-        <v>0.1363749757955556</v>
+        <v>0.6320401984299999</v>
       </c>
       <c r="R4">
-        <v>1.22737478216</v>
+        <v>5.68836178587</v>
       </c>
       <c r="S4">
-        <v>0.003844184849832135</v>
+        <v>0.02660890385307085</v>
       </c>
       <c r="T4">
-        <v>0.003844184849832134</v>
+        <v>0.02660890385307085</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.835299333333333</v>
+        <v>0.9457220000000001</v>
       </c>
       <c r="H5">
-        <v>5.505898</v>
+        <v>2.837166</v>
       </c>
       <c r="I5">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429605</v>
       </c>
       <c r="J5">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429604</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.8912843333333332</v>
+        <v>0.06259133333333333</v>
       </c>
       <c r="N5">
-        <v>2.673853</v>
+        <v>0.187774</v>
       </c>
       <c r="O5">
-        <v>0.5427557308636116</v>
+        <v>0.02643301786221311</v>
       </c>
       <c r="P5">
-        <v>0.5427557308636116</v>
+        <v>0.0264330178622131</v>
       </c>
       <c r="Q5">
-        <v>1.635773542777111</v>
+        <v>0.05919400094266667</v>
       </c>
       <c r="R5">
-        <v>14.721961884994</v>
+        <v>0.532746008484</v>
       </c>
       <c r="S5">
-        <v>0.04610974875864975</v>
+        <v>0.002492068516645857</v>
       </c>
       <c r="T5">
-        <v>0.04610974875864975</v>
+        <v>0.002492068516645856</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,51 +791,51 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.835299333333333</v>
+        <v>0.9457220000000001</v>
       </c>
       <c r="H6">
-        <v>5.505898</v>
+        <v>2.837166</v>
       </c>
       <c r="I6">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429605</v>
       </c>
       <c r="J6">
-        <v>0.08495488142572299</v>
+        <v>0.09427862265429604</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.230955</v>
+        <v>1.158308666666667</v>
       </c>
       <c r="N6">
-        <v>0.692865</v>
+        <v>3.474926</v>
       </c>
       <c r="O6">
-        <v>0.1406421555204479</v>
+        <v>0.4891666632647158</v>
       </c>
       <c r="P6">
-        <v>0.1406421555204479</v>
+        <v>0.4891666632647157</v>
       </c>
       <c r="Q6">
-        <v>0.42387155753</v>
+        <v>1.095437988857333</v>
       </c>
       <c r="R6">
-        <v>3.81484401777</v>
+        <v>9.858941899716001</v>
       </c>
       <c r="S6">
-        <v>0.01194823764569775</v>
+        <v>0.04611795926099525</v>
       </c>
       <c r="T6">
-        <v>0.01194823764569775</v>
+        <v>0.04611795926099523</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.01609166666666667</v>
+        <v>0.9457220000000001</v>
       </c>
       <c r="H7">
-        <v>0.048275</v>
+        <v>2.837166</v>
       </c>
       <c r="I7">
-        <v>0.0007448733886510026</v>
+        <v>0.09427862265429605</v>
       </c>
       <c r="J7">
-        <v>0.0007448733886510025</v>
+        <v>0.09427862265429604</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.09651566666666667</v>
+        <v>0.364817</v>
       </c>
       <c r="N7">
-        <v>0.289547</v>
+        <v>1.094451</v>
       </c>
       <c r="O7">
-        <v>0.05877409625898139</v>
+        <v>0.1540662862393995</v>
       </c>
       <c r="P7">
-        <v>0.05877409625898138</v>
+        <v>0.1540662862393995</v>
       </c>
       <c r="Q7">
-        <v>0.001553097936111111</v>
+        <v>0.345015462874</v>
       </c>
       <c r="R7">
-        <v>0.013977881425</v>
+        <v>3.105139165866</v>
       </c>
       <c r="S7">
-        <v>4.377926024532768E-05</v>
+        <v>0.01452515726411311</v>
       </c>
       <c r="T7">
-        <v>4.377926024532767E-05</v>
+        <v>0.0145251572641131</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -921,40 +921,40 @@
         <v>0.048275</v>
       </c>
       <c r="I8">
-        <v>0.0007448733886510026</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="J8">
-        <v>0.0007448733886510025</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.3490846666666667</v>
+        <v>0.01737466666666667</v>
       </c>
       <c r="N8">
-        <v>1.047254</v>
+        <v>0.052124</v>
       </c>
       <c r="O8">
-        <v>0.2125782943826159</v>
+        <v>0.007337515433712846</v>
       </c>
       <c r="P8">
-        <v>0.2125782943826159</v>
+        <v>0.007337515433712844</v>
       </c>
       <c r="Q8">
-        <v>0.005617354094444444</v>
+        <v>0.0002795873444444445</v>
       </c>
       <c r="R8">
-        <v>0.05055618685</v>
+        <v>0.0025162861</v>
       </c>
       <c r="S8">
-        <v>0.0001583439144904295</v>
+        <v>1.177063228784739E-05</v>
       </c>
       <c r="T8">
-        <v>0.0001583439144904295</v>
+        <v>1.177063228784738E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -983,10 +983,10 @@
         <v>0.048275</v>
       </c>
       <c r="I9">
-        <v>0.0007448733886510026</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="J9">
-        <v>0.0007448733886510025</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +995,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.07430666666666667</v>
+        <v>0.09651566666666667</v>
       </c>
       <c r="N9">
-        <v>0.22292</v>
+        <v>0.289547</v>
       </c>
       <c r="O9">
-        <v>0.04524972297434314</v>
+        <v>0.04075964203217814</v>
       </c>
       <c r="P9">
-        <v>0.04524972297434313</v>
+        <v>0.04075964203217813</v>
       </c>
       <c r="Q9">
-        <v>0.001195718111111111</v>
+        <v>0.001553097936111111</v>
       </c>
       <c r="R9">
-        <v>0.010761463</v>
+        <v>0.013977881425</v>
       </c>
       <c r="S9">
-        <v>3.37053144874181E-05</v>
+        <v>6.538545136692017E-05</v>
       </c>
       <c r="T9">
-        <v>3.370531448741809E-05</v>
+        <v>6.538545136692014E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1045,10 +1045,10 @@
         <v>0.048275</v>
       </c>
       <c r="I10">
-        <v>0.0007448733886510026</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="J10">
-        <v>0.0007448733886510025</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8912843333333332</v>
+        <v>0.6683149999999999</v>
       </c>
       <c r="N10">
-        <v>2.673853</v>
+        <v>2.004945</v>
       </c>
       <c r="O10">
-        <v>0.5427557308636116</v>
+        <v>0.2822368751677807</v>
       </c>
       <c r="P10">
-        <v>0.5427557308636116</v>
+        <v>0.2822368751677807</v>
       </c>
       <c r="Q10">
-        <v>0.01434225039722222</v>
+        <v>0.01075430220833333</v>
       </c>
       <c r="R10">
-        <v>0.129080253575</v>
+        <v>0.09678871987499998</v>
       </c>
       <c r="S10">
-        <v>0.0004042843004581299</v>
+        <v>0.0004527563186316893</v>
       </c>
       <c r="T10">
-        <v>0.0004042843004581299</v>
+        <v>0.0004527563186316892</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1107,10 +1107,10 @@
         <v>0.048275</v>
       </c>
       <c r="I11">
-        <v>0.0007448733886510026</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="J11">
-        <v>0.0007448733886510025</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,33 +1119,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.230955</v>
+        <v>0.06259133333333333</v>
       </c>
       <c r="N11">
-        <v>0.692865</v>
+        <v>0.187774</v>
       </c>
       <c r="O11">
-        <v>0.1406421555204479</v>
+        <v>0.02643301786221311</v>
       </c>
       <c r="P11">
-        <v>0.1406421555204479</v>
+        <v>0.0264330178622131</v>
       </c>
       <c r="Q11">
-        <v>0.003716450875</v>
+        <v>0.001007198872222222</v>
       </c>
       <c r="R11">
-        <v>0.033448057875</v>
+        <v>0.009064789849999999</v>
       </c>
       <c r="S11">
-        <v>0.0001047605989696974</v>
+        <v>4.240309084525852E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001047605989696973</v>
+        <v>4.24030908452585E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>5.421768666666668</v>
+        <v>0.01609166666666667</v>
       </c>
       <c r="H12">
-        <v>16.265306</v>
+        <v>0.048275</v>
       </c>
       <c r="I12">
-        <v>0.2509703489935886</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="J12">
-        <v>0.2509703489935885</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.09651566666666667</v>
+        <v>1.158308666666667</v>
       </c>
       <c r="N12">
-        <v>0.289547</v>
+        <v>3.474926</v>
       </c>
       <c r="O12">
-        <v>0.05877409625898139</v>
+        <v>0.4891666632647158</v>
       </c>
       <c r="P12">
-        <v>0.05877409625898138</v>
+        <v>0.4891666632647157</v>
       </c>
       <c r="Q12">
-        <v>0.5232856173757778</v>
+        <v>0.01863911696111111</v>
       </c>
       <c r="R12">
-        <v>4.709570556382</v>
+        <v>0.16775205265</v>
       </c>
       <c r="S12">
-        <v>0.01475055544989933</v>
+        <v>0.0007847071631778139</v>
       </c>
       <c r="T12">
-        <v>0.01475055544989932</v>
+        <v>0.0007847071631778134</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>5.421768666666668</v>
+        <v>0.01609166666666667</v>
       </c>
       <c r="H13">
-        <v>16.265306</v>
+        <v>0.048275</v>
       </c>
       <c r="I13">
-        <v>0.2509703489935886</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="J13">
-        <v>0.2509703489935885</v>
+        <v>0.001604171383921893</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3490846666666667</v>
+        <v>0.364817</v>
       </c>
       <c r="N13">
-        <v>1.047254</v>
+        <v>1.094451</v>
       </c>
       <c r="O13">
-        <v>0.2125782943826159</v>
+        <v>0.1540662862393995</v>
       </c>
       <c r="P13">
-        <v>0.2125782943826159</v>
+        <v>0.1540662862393995</v>
       </c>
       <c r="Q13">
-        <v>1.892656307747111</v>
+        <v>0.005870513558333334</v>
       </c>
       <c r="R13">
-        <v>17.033906769724</v>
+        <v>0.052834622025</v>
       </c>
       <c r="S13">
-        <v>0.05335084872966692</v>
+        <v>0.000247148727612364</v>
       </c>
       <c r="T13">
-        <v>0.0533508487296669</v>
+        <v>0.0002471487276123639</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.421768666666668</v>
+        <v>0.493532</v>
       </c>
       <c r="H14">
-        <v>16.265306</v>
+        <v>1.480596</v>
       </c>
       <c r="I14">
-        <v>0.2509703489935886</v>
+        <v>0.04919999449713556</v>
       </c>
       <c r="J14">
-        <v>0.2509703489935885</v>
+        <v>0.04919999449713555</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.07430666666666667</v>
+        <v>0.01737466666666667</v>
       </c>
       <c r="N14">
-        <v>0.22292</v>
+        <v>0.052124</v>
       </c>
       <c r="O14">
-        <v>0.04524972297434314</v>
+        <v>0.007337515433712846</v>
       </c>
       <c r="P14">
-        <v>0.04524972297434313</v>
+        <v>0.007337515433712844</v>
       </c>
       <c r="Q14">
-        <v>0.4028735570577779</v>
+        <v>0.008574953989333334</v>
       </c>
       <c r="R14">
-        <v>3.625862013520001</v>
+        <v>0.07717458590399999</v>
       </c>
       <c r="S14">
-        <v>0.0113563387667341</v>
+        <v>0.0003610057189613193</v>
       </c>
       <c r="T14">
-        <v>0.0113563387667341</v>
+        <v>0.0003610057189613192</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.421768666666668</v>
+        <v>0.493532</v>
       </c>
       <c r="H15">
-        <v>16.265306</v>
+        <v>1.480596</v>
       </c>
       <c r="I15">
-        <v>0.2509703489935886</v>
+        <v>0.04919999449713556</v>
       </c>
       <c r="J15">
-        <v>0.2509703489935885</v>
+        <v>0.04919999449713555</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.8912843333333332</v>
+        <v>0.09651566666666667</v>
       </c>
       <c r="N15">
-        <v>2.673853</v>
+        <v>0.289547</v>
       </c>
       <c r="O15">
-        <v>0.5427557308636116</v>
+        <v>0.04075964203217814</v>
       </c>
       <c r="P15">
-        <v>0.5427557308636116</v>
+        <v>0.04075964203217813</v>
       </c>
       <c r="Q15">
-        <v>4.832337471557556</v>
+        <v>0.04763357000133334</v>
       </c>
       <c r="R15">
-        <v>43.491037244018</v>
+        <v>0.428702130012</v>
       </c>
       <c r="S15">
-        <v>0.1362155951931108</v>
+        <v>0.00200537416368838</v>
       </c>
       <c r="T15">
-        <v>0.1362155951931108</v>
+        <v>0.002005374163688379</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,61 +1411,61 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.421768666666668</v>
+        <v>0.493532</v>
       </c>
       <c r="H16">
-        <v>16.265306</v>
+        <v>1.480596</v>
       </c>
       <c r="I16">
-        <v>0.2509703489935886</v>
+        <v>0.04919999449713556</v>
       </c>
       <c r="J16">
-        <v>0.2509703489935885</v>
+        <v>0.04919999449713555</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.230955</v>
+        <v>0.6683149999999999</v>
       </c>
       <c r="N16">
-        <v>0.692865</v>
+        <v>2.004945</v>
       </c>
       <c r="O16">
-        <v>0.1406421555204479</v>
+        <v>0.2822368751677807</v>
       </c>
       <c r="P16">
-        <v>0.1406421555204479</v>
+        <v>0.2822368751677807</v>
       </c>
       <c r="Q16">
-        <v>1.25218458241</v>
+        <v>0.32983483858</v>
       </c>
       <c r="R16">
-        <v>11.26966124169</v>
+        <v>2.96851354722</v>
       </c>
       <c r="S16">
-        <v>0.03529701085417737</v>
+        <v>0.01388605270514355</v>
       </c>
       <c r="T16">
-        <v>0.03529701085417736</v>
+        <v>0.01388605270514354</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.833872666666667</v>
+        <v>0.493532</v>
       </c>
       <c r="H17">
-        <v>11.501618</v>
+        <v>1.480596</v>
       </c>
       <c r="I17">
-        <v>0.1774676162533271</v>
+        <v>0.04919999449713556</v>
       </c>
       <c r="J17">
-        <v>0.1774676162533271</v>
+        <v>0.04919999449713555</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,33 +1491,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.09651566666666667</v>
+        <v>0.06259133333333333</v>
       </c>
       <c r="N17">
-        <v>0.289547</v>
+        <v>0.187774</v>
       </c>
       <c r="O17">
-        <v>0.05877409625898139</v>
+        <v>0.02643301786221311</v>
       </c>
       <c r="P17">
-        <v>0.05877409625898138</v>
+        <v>0.0264330178622131</v>
       </c>
       <c r="Q17">
-        <v>0.3700287763384444</v>
+        <v>0.03089082592266667</v>
       </c>
       <c r="R17">
-        <v>3.330258987046</v>
+        <v>0.278017433304</v>
       </c>
       <c r="S17">
-        <v>0.01043049876052502</v>
+        <v>0.001300504333363571</v>
       </c>
       <c r="T17">
-        <v>0.01043049876052502</v>
+        <v>0.00130050433336357</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.833872666666667</v>
+        <v>0.493532</v>
       </c>
       <c r="H18">
-        <v>11.501618</v>
+        <v>1.480596</v>
       </c>
       <c r="I18">
-        <v>0.1774676162533271</v>
+        <v>0.04919999449713556</v>
       </c>
       <c r="J18">
-        <v>0.1774676162533271</v>
+        <v>0.04919999449713555</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3490846666666667</v>
+        <v>1.158308666666667</v>
       </c>
       <c r="N18">
-        <v>1.047254</v>
+        <v>3.474926</v>
       </c>
       <c r="O18">
-        <v>0.2125782943826159</v>
+        <v>0.4891666632647158</v>
       </c>
       <c r="P18">
-        <v>0.2125782943826159</v>
+        <v>0.4891666632647157</v>
       </c>
       <c r="Q18">
-        <v>1.338346161885778</v>
+        <v>0.5716623928773333</v>
       </c>
       <c r="R18">
-        <v>12.045115456972</v>
+        <v>5.144961535896</v>
       </c>
       <c r="S18">
-        <v>0.03772576317128089</v>
+        <v>0.02406699714080618</v>
       </c>
       <c r="T18">
-        <v>0.03772576317128088</v>
+        <v>0.02406699714080617</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.833872666666667</v>
+        <v>0.493532</v>
       </c>
       <c r="H19">
-        <v>11.501618</v>
+        <v>1.480596</v>
       </c>
       <c r="I19">
-        <v>0.1774676162533271</v>
+        <v>0.04919999449713556</v>
       </c>
       <c r="J19">
-        <v>0.1774676162533271</v>
+        <v>0.04919999449713555</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.07430666666666667</v>
+        <v>0.364817</v>
       </c>
       <c r="N19">
-        <v>0.22292</v>
+        <v>1.094451</v>
       </c>
       <c r="O19">
-        <v>0.04524972297434314</v>
+        <v>0.1540662862393995</v>
       </c>
       <c r="P19">
-        <v>0.04524972297434313</v>
+        <v>0.1540662862393995</v>
       </c>
       <c r="Q19">
-        <v>0.2848822982844445</v>
+        <v>0.180048863644</v>
       </c>
       <c r="R19">
-        <v>2.56394068456</v>
+        <v>1.620439772796</v>
       </c>
       <c r="S19">
-        <v>0.008030360472380088</v>
+        <v>0.007580060435172567</v>
       </c>
       <c r="T19">
-        <v>0.008030360472380087</v>
+        <v>0.007580060435172565</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.833872666666667</v>
+        <v>3.928699333333333</v>
       </c>
       <c r="H20">
-        <v>11.501618</v>
+        <v>11.786098</v>
       </c>
       <c r="I20">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="J20">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.8912843333333332</v>
+        <v>0.01737466666666667</v>
       </c>
       <c r="N20">
-        <v>2.673853</v>
+        <v>0.052124</v>
       </c>
       <c r="O20">
-        <v>0.5427557308636116</v>
+        <v>0.007337515433712846</v>
       </c>
       <c r="P20">
-        <v>0.5427557308636116</v>
+        <v>0.007337515433712844</v>
       </c>
       <c r="Q20">
-        <v>3.417070643794888</v>
+        <v>0.06825984135022221</v>
       </c>
       <c r="R20">
-        <v>30.753635794154</v>
+        <v>0.6143385721519999</v>
       </c>
       <c r="S20">
-        <v>0.09632156576419752</v>
+        <v>0.002873740562745386</v>
       </c>
       <c r="T20">
-        <v>0.09632156576419752</v>
+        <v>0.002873740562745385</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.833872666666667</v>
+        <v>3.928699333333333</v>
       </c>
       <c r="H21">
-        <v>11.501618</v>
+        <v>11.786098</v>
       </c>
       <c r="I21">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="J21">
-        <v>0.1774676162533271</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1739,33 +1739,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.230955</v>
+        <v>0.09651566666666667</v>
       </c>
       <c r="N21">
-        <v>0.692865</v>
+        <v>0.289547</v>
       </c>
       <c r="O21">
-        <v>0.1406421555204479</v>
+        <v>0.04075964203217814</v>
       </c>
       <c r="P21">
-        <v>0.1406421555204479</v>
+        <v>0.04075964203217813</v>
       </c>
       <c r="Q21">
-        <v>0.88545206173</v>
+        <v>0.3791810352895555</v>
       </c>
       <c r="R21">
-        <v>7.96906855557</v>
+        <v>3.412629317606</v>
       </c>
       <c r="S21">
-        <v>0.02495942808494361</v>
+        <v>0.01596352848440714</v>
       </c>
       <c r="T21">
-        <v>0.02495942808494361</v>
+        <v>0.01596352848440714</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.133543</v>
+        <v>3.928699333333333</v>
       </c>
       <c r="H22">
-        <v>3.400628999999999</v>
+        <v>11.786098</v>
       </c>
       <c r="I22">
-        <v>0.05247101080838673</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="J22">
-        <v>0.05247101080838674</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.09651566666666667</v>
+        <v>0.6683149999999999</v>
       </c>
       <c r="N22">
-        <v>0.289547</v>
+        <v>2.004945</v>
       </c>
       <c r="O22">
-        <v>0.05877409625898139</v>
+        <v>0.2822368751677807</v>
       </c>
       <c r="P22">
-        <v>0.05877409625898138</v>
+        <v>0.2822368751677807</v>
       </c>
       <c r="Q22">
-        <v>0.1094046583403333</v>
+        <v>2.625608694956666</v>
       </c>
       <c r="R22">
-        <v>0.9846419250629999</v>
+        <v>23.63047825460999</v>
       </c>
       <c r="S22">
-        <v>0.003083936240058175</v>
+        <v>0.1105381738272877</v>
       </c>
       <c r="T22">
-        <v>0.003083936240058175</v>
+        <v>0.1105381738272877</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.133543</v>
+        <v>3.928699333333333</v>
       </c>
       <c r="H23">
-        <v>3.400628999999999</v>
+        <v>11.786098</v>
       </c>
       <c r="I23">
-        <v>0.05247101080838673</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="J23">
-        <v>0.05247101080838674</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,43 +1863,43 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.3490846666666667</v>
+        <v>0.06259133333333333</v>
       </c>
       <c r="N23">
-        <v>1.047254</v>
+        <v>0.187774</v>
       </c>
       <c r="O23">
-        <v>0.2125782943826159</v>
+        <v>0.02643301786221311</v>
       </c>
       <c r="P23">
-        <v>0.2125782943826159</v>
+        <v>0.0264330178622131</v>
       </c>
       <c r="Q23">
-        <v>0.3957024803073332</v>
+        <v>0.2459025295391111</v>
       </c>
       <c r="R23">
-        <v>3.561322322765999</v>
+        <v>2.213122765852</v>
       </c>
       <c r="S23">
-        <v>0.01115419798217866</v>
+        <v>0.01035250096748047</v>
       </c>
       <c r="T23">
-        <v>0.01115419798217866</v>
+        <v>0.01035250096748047</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,51 +1907,51 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.133543</v>
+        <v>3.928699333333333</v>
       </c>
       <c r="H24">
-        <v>3.400628999999999</v>
+        <v>11.786098</v>
       </c>
       <c r="I24">
-        <v>0.05247101080838673</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="J24">
-        <v>0.05247101080838674</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.07430666666666667</v>
+        <v>1.158308666666667</v>
       </c>
       <c r="N24">
-        <v>0.22292</v>
+        <v>3.474926</v>
       </c>
       <c r="O24">
-        <v>0.04524972297434314</v>
+        <v>0.4891666632647158</v>
       </c>
       <c r="P24">
-        <v>0.04524972297434313</v>
+        <v>0.4891666632647157</v>
       </c>
       <c r="Q24">
-        <v>0.08422980185333333</v>
+        <v>4.550646486527555</v>
       </c>
       <c r="R24">
-        <v>0.7580682166799999</v>
+        <v>40.955818378748</v>
       </c>
       <c r="S24">
-        <v>0.002374298703263264</v>
+        <v>0.1915822998760374</v>
       </c>
       <c r="T24">
-        <v>0.002374298703263264</v>
+        <v>0.1915822998760373</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.133543</v>
+        <v>3.928699333333333</v>
       </c>
       <c r="H25">
-        <v>3.400628999999999</v>
+        <v>11.786098</v>
       </c>
       <c r="I25">
-        <v>0.05247101080838673</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="J25">
-        <v>0.05247101080838674</v>
+        <v>0.3916503602216272</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.8912843333333332</v>
+        <v>0.364817</v>
       </c>
       <c r="N25">
-        <v>2.673853</v>
+        <v>1.094451</v>
       </c>
       <c r="O25">
-        <v>0.5427557308636116</v>
+        <v>0.1540662862393995</v>
       </c>
       <c r="P25">
-        <v>0.5427557308636116</v>
+        <v>0.1540662862393995</v>
       </c>
       <c r="Q25">
-        <v>1.010309117059666</v>
+        <v>1.433256304688667</v>
       </c>
       <c r="R25">
-        <v>9.092782053536999</v>
+        <v>12.899306742198</v>
       </c>
       <c r="S25">
-        <v>0.0284789418204584</v>
+        <v>0.06034011650366914</v>
       </c>
       <c r="T25">
-        <v>0.02847894182045841</v>
+        <v>0.06034011650366913</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.133543</v>
+        <v>0.7661526666666667</v>
       </c>
       <c r="H26">
-        <v>3.400628999999999</v>
+        <v>2.298458</v>
       </c>
       <c r="I26">
-        <v>0.05247101080838673</v>
+        <v>0.07637743243389636</v>
       </c>
       <c r="J26">
-        <v>0.05247101080838674</v>
+        <v>0.07637743243389634</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.230955</v>
+        <v>0.01737466666666667</v>
       </c>
       <c r="N26">
-        <v>0.692865</v>
+        <v>0.052124</v>
       </c>
       <c r="O26">
-        <v>0.1406421555204479</v>
+        <v>0.007337515433712846</v>
       </c>
       <c r="P26">
-        <v>0.1406421555204479</v>
+        <v>0.007337515433712844</v>
       </c>
       <c r="Q26">
-        <v>0.2617974235649999</v>
+        <v>0.01331164719911111</v>
       </c>
       <c r="R26">
-        <v>2.356176812084999</v>
+        <v>0.119804824792</v>
       </c>
       <c r="S26">
-        <v>0.00737963606242823</v>
+        <v>0.0005604205892710746</v>
       </c>
       <c r="T26">
-        <v>0.007379636062428232</v>
+        <v>0.0005604205892710744</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.362648666666667</v>
+        <v>0.7661526666666667</v>
       </c>
       <c r="H27">
-        <v>28.087946</v>
+        <v>2.298458</v>
       </c>
       <c r="I27">
-        <v>0.4333912691303236</v>
+        <v>0.07637743243389636</v>
       </c>
       <c r="J27">
-        <v>0.4333912691303236</v>
+        <v>0.07637743243389634</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2117,27 +2117,27 @@
         <v>0.289547</v>
       </c>
       <c r="O27">
-        <v>0.05877409625898139</v>
+        <v>0.04075964203217814</v>
       </c>
       <c r="P27">
-        <v>0.05877409625898138</v>
+        <v>0.04075964203217813</v>
       </c>
       <c r="Q27">
-        <v>0.9036422778291111</v>
+        <v>0.07394573539177778</v>
       </c>
       <c r="R27">
-        <v>8.132780500462001</v>
+        <v>0.665511618526</v>
       </c>
       <c r="S27">
-        <v>0.02547218016966775</v>
+        <v>0.003113116805342488</v>
       </c>
       <c r="T27">
-        <v>0.02547218016966775</v>
+        <v>0.003113116805342487</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.362648666666667</v>
+        <v>0.7661526666666667</v>
       </c>
       <c r="H28">
-        <v>28.087946</v>
+        <v>2.298458</v>
       </c>
       <c r="I28">
-        <v>0.4333912691303236</v>
+        <v>0.07637743243389636</v>
       </c>
       <c r="J28">
-        <v>0.4333912691303236</v>
+        <v>0.07637743243389634</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.3490846666666667</v>
+        <v>0.6683149999999999</v>
       </c>
       <c r="N28">
-        <v>1.047254</v>
+        <v>2.004945</v>
       </c>
       <c r="O28">
-        <v>0.2125782943826159</v>
+        <v>0.2822368751677807</v>
       </c>
       <c r="P28">
-        <v>0.2125782943826159</v>
+        <v>0.2822368751677807</v>
       </c>
       <c r="Q28">
-        <v>3.268357088920444</v>
+        <v>0.5120313194233332</v>
       </c>
       <c r="R28">
-        <v>29.415213800284</v>
+        <v>4.608281874809999</v>
       </c>
       <c r="S28">
-        <v>0.09212957679204145</v>
+        <v>0.02155652786348121</v>
       </c>
       <c r="T28">
-        <v>0.09212957679204144</v>
+        <v>0.02155652786348121</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.362648666666667</v>
+        <v>0.7661526666666667</v>
       </c>
       <c r="H29">
-        <v>28.087946</v>
+        <v>2.298458</v>
       </c>
       <c r="I29">
-        <v>0.4333912691303236</v>
+        <v>0.07637743243389636</v>
       </c>
       <c r="J29">
-        <v>0.4333912691303236</v>
+        <v>0.07637743243389634</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,33 +2235,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M29">
-        <v>0.07430666666666667</v>
+        <v>0.06259133333333333</v>
       </c>
       <c r="N29">
-        <v>0.22292</v>
+        <v>0.187774</v>
       </c>
       <c r="O29">
-        <v>0.04524972297434314</v>
+        <v>0.02643301786221311</v>
       </c>
       <c r="P29">
-        <v>0.04524972297434313</v>
+        <v>0.0264330178622131</v>
       </c>
       <c r="Q29">
-        <v>0.6957072135911112</v>
+        <v>0.04795451694355556</v>
       </c>
       <c r="R29">
-        <v>6.26136492232</v>
+        <v>0.431590652492</v>
       </c>
       <c r="S29">
-        <v>0.01961083486764614</v>
+        <v>0.002018886035795157</v>
       </c>
       <c r="T29">
-        <v>0.01961083486764613</v>
+        <v>0.002018886035795156</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.362648666666667</v>
+        <v>0.7661526666666667</v>
       </c>
       <c r="H30">
-        <v>28.087946</v>
+        <v>2.298458</v>
       </c>
       <c r="I30">
-        <v>0.4333912691303236</v>
+        <v>0.07637743243389636</v>
       </c>
       <c r="J30">
-        <v>0.4333912691303236</v>
+        <v>0.07637743243389634</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,33 +2297,33 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.8912843333333332</v>
+        <v>1.158308666666667</v>
       </c>
       <c r="N30">
-        <v>2.673853</v>
+        <v>3.474926</v>
       </c>
       <c r="O30">
-        <v>0.5427557308636116</v>
+        <v>0.4891666632647158</v>
       </c>
       <c r="P30">
-        <v>0.5427557308636116</v>
+        <v>0.4891666632647157</v>
       </c>
       <c r="Q30">
-        <v>8.344782075104222</v>
+        <v>0.8874412737897778</v>
       </c>
       <c r="R30">
-        <v>75.103038675938</v>
+        <v>7.986971464108001</v>
       </c>
       <c r="S30">
-        <v>0.235225595026737</v>
+        <v>0.03736129377241536</v>
       </c>
       <c r="T30">
-        <v>0.235225595026737</v>
+        <v>0.03736129377241535</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,46 +2341,418 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.362648666666667</v>
+        <v>0.7661526666666667</v>
       </c>
       <c r="H31">
-        <v>28.087946</v>
+        <v>2.298458</v>
       </c>
       <c r="I31">
-        <v>0.4333912691303236</v>
+        <v>0.07637743243389636</v>
       </c>
       <c r="J31">
-        <v>0.4333912691303236</v>
+        <v>0.07637743243389634</v>
       </c>
       <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.364817</v>
+      </c>
+      <c r="N31">
+        <v>1.094451</v>
+      </c>
+      <c r="O31">
+        <v>0.1540662862393995</v>
+      </c>
+      <c r="P31">
+        <v>0.1540662862393995</v>
+      </c>
+      <c r="Q31">
+        <v>0.2795055173953334</v>
+      </c>
+      <c r="R31">
+        <v>2.515549656558</v>
+      </c>
+      <c r="S31">
+        <v>0.01176718736759107</v>
+      </c>
+      <c r="T31">
+        <v>0.01176718736759107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3.880941666666666</v>
+      </c>
+      <c r="H32">
+        <v>11.642825</v>
+      </c>
+      <c r="I32">
+        <v>0.386889418809123</v>
+      </c>
+      <c r="J32">
+        <v>0.3868894188091229</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M32">
+        <v>0.01737466666666667</v>
+      </c>
+      <c r="N32">
+        <v>0.052124</v>
+      </c>
+      <c r="O32">
+        <v>0.007337515433712846</v>
+      </c>
+      <c r="P32">
+        <v>0.007337515433712844</v>
+      </c>
+      <c r="Q32">
+        <v>0.06743006781111111</v>
+      </c>
+      <c r="R32">
+        <v>0.6068706102999999</v>
+      </c>
+      <c r="S32">
+        <v>0.002838807081652133</v>
+      </c>
+      <c r="T32">
+        <v>0.002838807081652132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3.880941666666666</v>
+      </c>
+      <c r="H33">
+        <v>11.642825</v>
+      </c>
+      <c r="I33">
+        <v>0.386889418809123</v>
+      </c>
+      <c r="J33">
+        <v>0.3868894188091229</v>
+      </c>
+      <c r="K33">
         <v>2</v>
       </c>
-      <c r="L31">
+      <c r="L33">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M31">
-        <v>0.230955</v>
-      </c>
-      <c r="N31">
-        <v>0.692865</v>
-      </c>
-      <c r="O31">
-        <v>0.1406421555204479</v>
-      </c>
-      <c r="P31">
-        <v>0.1406421555204479</v>
-      </c>
-      <c r="Q31">
-        <v>2.16235052281</v>
-      </c>
-      <c r="R31">
-        <v>19.46115470529</v>
-      </c>
-      <c r="S31">
-        <v>0.06095308227423128</v>
-      </c>
-      <c r="T31">
-        <v>0.06095308227423128</v>
+      <c r="M33">
+        <v>0.09651566666666667</v>
+      </c>
+      <c r="N33">
+        <v>0.289547</v>
+      </c>
+      <c r="O33">
+        <v>0.04075964203217814</v>
+      </c>
+      <c r="P33">
+        <v>0.04075964203217813</v>
+      </c>
+      <c r="Q33">
+        <v>0.3745716722527778</v>
+      </c>
+      <c r="R33">
+        <v>3.371145050275</v>
+      </c>
+      <c r="S33">
+        <v>0.0157694742166973</v>
+      </c>
+      <c r="T33">
+        <v>0.0157694742166973</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3.880941666666666</v>
+      </c>
+      <c r="H34">
+        <v>11.642825</v>
+      </c>
+      <c r="I34">
+        <v>0.386889418809123</v>
+      </c>
+      <c r="J34">
+        <v>0.3868894188091229</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.6683149999999999</v>
+      </c>
+      <c r="N34">
+        <v>2.004945</v>
+      </c>
+      <c r="O34">
+        <v>0.2822368751677807</v>
+      </c>
+      <c r="P34">
+        <v>0.2822368751677807</v>
+      </c>
+      <c r="Q34">
+        <v>2.593691529958333</v>
+      </c>
+      <c r="R34">
+        <v>23.34322376962499</v>
+      </c>
+      <c r="S34">
+        <v>0.1091944606001657</v>
+      </c>
+      <c r="T34">
+        <v>0.1091944606001656</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3.880941666666666</v>
+      </c>
+      <c r="H35">
+        <v>11.642825</v>
+      </c>
+      <c r="I35">
+        <v>0.386889418809123</v>
+      </c>
+      <c r="J35">
+        <v>0.3868894188091229</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.06259133333333333</v>
+      </c>
+      <c r="N35">
+        <v>0.187774</v>
+      </c>
+      <c r="O35">
+        <v>0.02643301786221311</v>
+      </c>
+      <c r="P35">
+        <v>0.0264330178622131</v>
+      </c>
+      <c r="Q35">
+        <v>0.2429133135055555</v>
+      </c>
+      <c r="R35">
+        <v>2.186219821549999</v>
+      </c>
+      <c r="S35">
+        <v>0.0102266549180828</v>
+      </c>
+      <c r="T35">
+        <v>0.01022665491808279</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3.880941666666666</v>
+      </c>
+      <c r="H36">
+        <v>11.642825</v>
+      </c>
+      <c r="I36">
+        <v>0.386889418809123</v>
+      </c>
+      <c r="J36">
+        <v>0.3868894188091229</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.158308666666667</v>
+      </c>
+      <c r="N36">
+        <v>3.474926</v>
+      </c>
+      <c r="O36">
+        <v>0.4891666632647158</v>
+      </c>
+      <c r="P36">
+        <v>0.4891666632647157</v>
+      </c>
+      <c r="Q36">
+        <v>4.495328367327777</v>
+      </c>
+      <c r="R36">
+        <v>40.45795530594999</v>
+      </c>
+      <c r="S36">
+        <v>0.1892534060512839</v>
+      </c>
+      <c r="T36">
+        <v>0.1892534060512838</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3.880941666666666</v>
+      </c>
+      <c r="H37">
+        <v>11.642825</v>
+      </c>
+      <c r="I37">
+        <v>0.386889418809123</v>
+      </c>
+      <c r="J37">
+        <v>0.3868894188091229</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.364817</v>
+      </c>
+      <c r="N37">
+        <v>1.094451</v>
+      </c>
+      <c r="O37">
+        <v>0.1540662862393995</v>
+      </c>
+      <c r="P37">
+        <v>0.1540662862393995</v>
+      </c>
+      <c r="Q37">
+        <v>1.415833496008333</v>
+      </c>
+      <c r="R37">
+        <v>12.742501464075</v>
+      </c>
+      <c r="S37">
+        <v>0.05960661594124125</v>
+      </c>
+      <c r="T37">
+        <v>0.05960661594124123</v>
       </c>
     </row>
   </sheetData>
